--- a/校赛/data-all-in-one.xlsx
+++ b/校赛/data-all-in-one.xlsx
@@ -3,16 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4973D1BB-1699-E440-B2D3-50AC6BBDD3F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C3BFA3C-4C32-204D-852C-4C95771AFB45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="820" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="780" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>景点名称</t>
   </si>
@@ -375,6 +372,206 @@
     <rPh sb="0" eb="4">
       <t>ren jun</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清凉山公园</t>
+  </si>
+  <si>
+    <t>小桃园</t>
+  </si>
+  <si>
+    <t>鼓楼公园</t>
+  </si>
+  <si>
+    <t>石头城公园</t>
+  </si>
+  <si>
+    <t>古林公园</t>
+  </si>
+  <si>
+    <t>江苏省南京市鼓楼区虎踞北路21号</t>
+  </si>
+  <si>
+    <t>乌龙潭公园</t>
+  </si>
+  <si>
+    <t>广州路215号(省人民医院对面)</t>
+  </si>
+  <si>
+    <t>拉贝旧居</t>
+  </si>
+  <si>
+    <t>南京市鼓楼区广州路小粉桥1号</t>
+  </si>
+  <si>
+    <t>基督教江苏路堂</t>
+  </si>
+  <si>
+    <t>江苏省南京市江苏路60-10号</t>
+  </si>
+  <si>
+    <t>八字山公园</t>
+  </si>
+  <si>
+    <t>中山北路419号</t>
+  </si>
+  <si>
+    <t>曹雪芹纪念馆</t>
+  </si>
+  <si>
+    <t>广州路217号乌龙潭公园内</t>
+  </si>
+  <si>
+    <t>狮子桥</t>
+  </si>
+  <si>
+    <t>南京市鼓楼区云南北路28号</t>
+  </si>
+  <si>
+    <t>郑和公园</t>
+  </si>
+  <si>
+    <t>江苏省南京市秦淮区长太平巷35号</t>
+  </si>
+  <si>
+    <t>午朝门公园</t>
+  </si>
+  <si>
+    <t>御道街27号(明故宫遗址)</t>
+  </si>
+  <si>
+    <t>月牙湖公园</t>
+  </si>
+  <si>
+    <t>南京市秦淮区后标营51号</t>
+  </si>
+  <si>
+    <t>甘熙故居</t>
+  </si>
+  <si>
+    <t>江苏省南京市秦淮区南捕厅19号-旁门</t>
+  </si>
+  <si>
+    <t>石鼓路天主堂</t>
+  </si>
+  <si>
+    <t>秦淮区石鼓路112号(近愁莫街)</t>
+  </si>
+  <si>
+    <t>中山陵园风景区</t>
+  </si>
+  <si>
+    <t>南京市玄武区石象路7号</t>
+  </si>
+  <si>
+    <t>总统府</t>
+  </si>
+  <si>
+    <t>南京市玄武区长江路292号</t>
+  </si>
+  <si>
+    <t>玄武湖公园</t>
+  </si>
+  <si>
+    <t>南京市玄武区玄武巷1号(近洞庭路)</t>
+  </si>
+  <si>
+    <t>南京博物院</t>
+  </si>
+  <si>
+    <t>江苏省南京市玄武区中山东路321号</t>
+  </si>
+  <si>
+    <t>鸡鸣寺</t>
+  </si>
+  <si>
+    <t>玄武区鸡鸣寺路1号(近北极阁公园)</t>
+  </si>
+  <si>
+    <t>明孝陵</t>
+  </si>
+  <si>
+    <t>南京市玄武区紫金山南独龙阜玩珠峰下</t>
+  </si>
+  <si>
+    <t>梅花山</t>
+  </si>
+  <si>
+    <t>南京市中山门外钟山南</t>
+  </si>
+  <si>
+    <t>红山森林动物园</t>
+  </si>
+  <si>
+    <t>和燕路168号</t>
+  </si>
+  <si>
+    <t>海底世界</t>
+  </si>
+  <si>
+    <t>江苏省南京市玄武区中山陵四方城8号</t>
+  </si>
+  <si>
+    <t>明故宫遗址公园</t>
+  </si>
+  <si>
+    <t>江苏省南京市玄武区明故宫</t>
+  </si>
+  <si>
+    <t>灵谷寺</t>
+  </si>
+  <si>
+    <t>江苏省南京市玄武区灵谷寺路</t>
+  </si>
+  <si>
+    <t>情侣园</t>
+  </si>
+  <si>
+    <t>南京市玄武区龙蟠路100号</t>
+  </si>
+  <si>
+    <t>美龄宫</t>
+  </si>
+  <si>
+    <t>南京市玄武区中山陵9号</t>
+  </si>
+  <si>
+    <t>紫霞湖</t>
+  </si>
+  <si>
+    <t>南京市玄武区明孝陵景区内</t>
+  </si>
+  <si>
+    <t>紫金山</t>
+  </si>
+  <si>
+    <t>南京市玄武区钟山风景区内</t>
+  </si>
+  <si>
+    <t>先锋书店</t>
+  </si>
+  <si>
+    <t>广州路173号五台山体育馆地下车库</t>
+  </si>
+  <si>
+    <t>江宁织造博物馆</t>
+  </si>
+  <si>
+    <t>江苏省南京市玄武区长江路123号</t>
+  </si>
+  <si>
+    <t>江苏省南京市鼓楼区汉口路22号</t>
+  </si>
+  <si>
+    <t>南京市玄武区四牌楼2号</t>
+  </si>
+  <si>
+    <t>东南大学四牌楼校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京大学鼓楼校区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,710 +642,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-      <sheetName val="工作表2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>清凉山公园</v>
-          </cell>
-          <cell r="D2">
-            <v>20</v>
-          </cell>
-          <cell r="E2">
-            <v>2</v>
-          </cell>
-          <cell r="F2">
-            <v>6</v>
-          </cell>
-          <cell r="I2">
-            <v>4.5999999999999996</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>小桃园</v>
-          </cell>
-          <cell r="D3">
-            <v>30</v>
-          </cell>
-          <cell r="E3">
-            <v>6</v>
-          </cell>
-          <cell r="F3">
-            <v>18</v>
-          </cell>
-          <cell r="I3">
-            <v>4.7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>鼓楼公园</v>
-          </cell>
-          <cell r="D4">
-            <v>145</v>
-          </cell>
-          <cell r="E4">
-            <v>8</v>
-          </cell>
-          <cell r="F4">
-            <v>73</v>
-          </cell>
-          <cell r="I4">
-            <v>3.4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>石头城公园</v>
-          </cell>
-          <cell r="D5">
-            <v>65</v>
-          </cell>
-          <cell r="E5">
-            <v>3</v>
-          </cell>
-          <cell r="F5">
-            <v>13</v>
-          </cell>
-          <cell r="I5">
-            <v>4.2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>古林公园</v>
-          </cell>
-          <cell r="D6">
-            <v>35</v>
-          </cell>
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>3</v>
-          </cell>
-          <cell r="I6">
-            <v>4.0999999999999996</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>江苏省南京市鼓楼区虎踞北路21号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>乌龙潭公园</v>
-          </cell>
-          <cell r="D7">
-            <v>50</v>
-          </cell>
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>16</v>
-          </cell>
-          <cell r="I7">
-            <v>4</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>广州路215号(省人民医院对面)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>拉贝旧居</v>
-          </cell>
-          <cell r="D8">
-            <v>130</v>
-          </cell>
-          <cell r="E8">
-            <v>10</v>
-          </cell>
-          <cell r="F8">
-            <v>41</v>
-          </cell>
-          <cell r="I8">
-            <v>4.2</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>南京市鼓楼区广州路小粉桥1号</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>基督教江苏路堂</v>
-          </cell>
-          <cell r="D9">
-            <v>140</v>
-          </cell>
-          <cell r="E9">
-            <v>7</v>
-          </cell>
-          <cell r="F9">
-            <v>46</v>
-          </cell>
-          <cell r="I9">
-            <v>3.5</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>江苏省南京市江苏路60-10号</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>八字山公园</v>
-          </cell>
-          <cell r="D10">
-            <v>75</v>
-          </cell>
-          <cell r="E10">
-            <v>7</v>
-          </cell>
-          <cell r="F10">
-            <v>12</v>
-          </cell>
-          <cell r="I10">
-            <v>3.8</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>中山北路419号</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>曹雪芹纪念馆</v>
-          </cell>
-          <cell r="D11">
-            <v>60</v>
-          </cell>
-          <cell r="E11">
-            <v>6</v>
-          </cell>
-          <cell r="F11">
-            <v>41</v>
-          </cell>
-          <cell r="I11">
-            <v>3.8</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>广州路217号乌龙潭公园内</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>狮子桥</v>
-          </cell>
-          <cell r="D12">
-            <v>200</v>
-          </cell>
-          <cell r="E12">
-            <v>9</v>
-          </cell>
-          <cell r="F12">
-            <v>56</v>
-          </cell>
-          <cell r="I12">
-            <v>3.8</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>南京市鼓楼区云南北路28号</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>郑和公园</v>
-          </cell>
-          <cell r="D13">
-            <v>110</v>
-          </cell>
-          <cell r="E13">
-            <v>10</v>
-          </cell>
-          <cell r="F13">
-            <v>32</v>
-          </cell>
-          <cell r="I13">
-            <v>4.3</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>江苏省南京市秦淮区长太平巷35号</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>午朝门公园</v>
-          </cell>
-          <cell r="D14">
-            <v>150</v>
-          </cell>
-          <cell r="E14">
-            <v>6</v>
-          </cell>
-          <cell r="F14">
-            <v>15</v>
-          </cell>
-          <cell r="I14">
-            <v>3.8</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>御道街27号(明故宫遗址)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>月牙湖公园</v>
-          </cell>
-          <cell r="D15">
-            <v>80</v>
-          </cell>
-          <cell r="E15">
-            <v>4</v>
-          </cell>
-          <cell r="F15">
-            <v>9</v>
-          </cell>
-          <cell r="I15">
-            <v>4</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>南京市秦淮区后标营51号</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>甘熙故居</v>
-          </cell>
-          <cell r="D16">
-            <v>170</v>
-          </cell>
-          <cell r="E16">
-            <v>10</v>
-          </cell>
-          <cell r="F16">
-            <v>28</v>
-          </cell>
-          <cell r="I16">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>江苏省南京市秦淮区南捕厅19号-旁门</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>石鼓路天主堂</v>
-          </cell>
-          <cell r="D17">
-            <v>270</v>
-          </cell>
-          <cell r="E17">
-            <v>12</v>
-          </cell>
-          <cell r="F17">
-            <v>50</v>
-          </cell>
-          <cell r="I17">
-            <v>3.5</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>秦淮区石鼓路112号(近愁莫街)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>中山陵园风景区</v>
-          </cell>
-          <cell r="D18">
-            <v>10</v>
-          </cell>
-          <cell r="E18">
-            <v>2</v>
-          </cell>
-          <cell r="F18">
-            <v>1</v>
-          </cell>
-          <cell r="I18">
-            <v>3.6</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v>南京市玄武区石象路7号</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>总统府</v>
-          </cell>
-          <cell r="D19">
-            <v>170</v>
-          </cell>
-          <cell r="E19">
-            <v>6</v>
-          </cell>
-          <cell r="F19">
-            <v>19</v>
-          </cell>
-          <cell r="I19">
-            <v>4.2</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v>南京市玄武区长江路292号</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>玄武湖公园</v>
-          </cell>
-          <cell r="D20">
-            <v>20</v>
-          </cell>
-          <cell r="E20">
-            <v>9</v>
-          </cell>
-          <cell r="F20">
-            <v>20</v>
-          </cell>
-          <cell r="I20">
-            <v>4.5</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v>南京市玄武区玄武巷1号(近洞庭路)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>南京博物院</v>
-          </cell>
-          <cell r="D21">
-            <v>90</v>
-          </cell>
-          <cell r="E21">
-            <v>6</v>
-          </cell>
-          <cell r="F21">
-            <v>10</v>
-          </cell>
-          <cell r="I21">
-            <v>4.7</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v>江苏省南京市玄武区中山东路321号</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>鸡鸣寺</v>
-          </cell>
-          <cell r="D22">
-            <v>40</v>
-          </cell>
-          <cell r="E22">
-            <v>8</v>
-          </cell>
-          <cell r="F22">
-            <v>10</v>
-          </cell>
-          <cell r="I22">
-            <v>4.2</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v>玄武区鸡鸣寺路1号(近北极阁公园)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>明孝陵</v>
-          </cell>
-          <cell r="D23">
-            <v>20</v>
-          </cell>
-          <cell r="E23">
-            <v>2</v>
-          </cell>
-          <cell r="F23">
-            <v>5</v>
-          </cell>
-          <cell r="I23">
-            <v>4.3</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>南京市玄武区紫金山南独龙阜玩珠峰下</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>梅花山</v>
-          </cell>
-          <cell r="D24">
-            <v>10</v>
-          </cell>
-          <cell r="E24">
-            <v>2</v>
-          </cell>
-          <cell r="F24">
-            <v>8</v>
-          </cell>
-          <cell r="I24">
-            <v>4.5</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v>南京市中山门外钟山南</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>红山森林动物园</v>
-          </cell>
-          <cell r="D25">
-            <v>70</v>
-          </cell>
-          <cell r="E25">
-            <v>6</v>
-          </cell>
-          <cell r="F25">
-            <v>16</v>
-          </cell>
-          <cell r="I25">
-            <v>4</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v>和燕路168号</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>海底世界</v>
-          </cell>
-          <cell r="D26">
-            <v>20</v>
-          </cell>
-          <cell r="E26">
-            <v>2</v>
-          </cell>
-          <cell r="F26">
-            <v>10</v>
-          </cell>
-          <cell r="I26">
-            <v>3.9</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v>江苏省南京市玄武区中山陵四方城8号</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>明故宫遗址公园</v>
-          </cell>
-          <cell r="D27">
-            <v>90</v>
-          </cell>
-          <cell r="E27">
-            <v>10</v>
-          </cell>
-          <cell r="F27">
-            <v>15</v>
-          </cell>
-          <cell r="I27">
-            <v>3.8</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v>江苏省南京市玄武区明故宫</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>灵谷寺</v>
-          </cell>
-          <cell r="D28">
-            <v>10</v>
-          </cell>
-          <cell r="E28">
-            <v>2</v>
-          </cell>
-          <cell r="F28">
-            <v>1</v>
-          </cell>
-          <cell r="I28">
-            <v>3</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v>江苏省南京市玄武区灵谷寺路</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>情侣园</v>
-          </cell>
-          <cell r="D29">
-            <v>90</v>
-          </cell>
-          <cell r="E29">
-            <v>4</v>
-          </cell>
-          <cell r="F29">
-            <v>23</v>
-          </cell>
-          <cell r="I29">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>南京市玄武区龙蟠路100号</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>美龄宫</v>
-          </cell>
-          <cell r="D30">
-            <v>30</v>
-          </cell>
-          <cell r="E30">
-            <v>2</v>
-          </cell>
-          <cell r="F30">
-            <v>15</v>
-          </cell>
-          <cell r="I30">
-            <v>4.5</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>南京市玄武区中山陵9号</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>紫霞湖</v>
-          </cell>
-          <cell r="D31">
-            <v>10</v>
-          </cell>
-          <cell r="E31">
-            <v>1</v>
-          </cell>
-          <cell r="F31">
-            <v>3</v>
-          </cell>
-          <cell r="I31">
-            <v>4.2</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v>南京市玄武区明孝陵景区内</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>紫金山</v>
-          </cell>
-          <cell r="D32">
-            <v>1</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>4.7</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v>南京市玄武区钟山风景区内</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>先锋书店</v>
-          </cell>
-          <cell r="D33">
-            <v>110</v>
-          </cell>
-          <cell r="E33">
-            <v>5</v>
-          </cell>
-          <cell r="F33">
-            <v>10</v>
-          </cell>
-          <cell r="I33">
-            <v>4.3</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v>广州路173号五台山体育馆地下车库</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>江宁织造博物馆</v>
-          </cell>
-          <cell r="D34">
-            <v>230</v>
-          </cell>
-          <cell r="E34">
-            <v>12</v>
-          </cell>
-          <cell r="F34">
-            <v>20</v>
-          </cell>
-          <cell r="I34">
-            <v>4.5</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v>江苏省南京市玄武区长江路123号</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>南京大学鼓楼校区</v>
-          </cell>
-          <cell r="D35">
-            <v>170</v>
-          </cell>
-          <cell r="E35">
-            <v>10</v>
-          </cell>
-          <cell r="F35">
-            <v>20</v>
-          </cell>
-          <cell r="I35">
-            <v>4.7</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>江苏省南京市鼓楼区汉口路22号</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>东南大学四牌楼校区</v>
-          </cell>
-          <cell r="D36">
-            <v>150</v>
-          </cell>
-          <cell r="E36">
-            <v>6</v>
-          </cell>
-          <cell r="F36">
-            <v>18</v>
-          </cell>
-          <cell r="I36">
-            <v>4.7</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>南京市玄武区四牌楼2号</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1416,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3342,9 +2835,8 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" t="str">
-        <f>[1]工作表1!A2</f>
-        <v>清凉山公园</v>
+      <c r="A46" t="s">
+        <v>77</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -3353,19 +2845,15 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f>[1]工作表1!I2</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="E46">
-        <f>[1]工作表1!D2</f>
         <v>20</v>
       </c>
       <c r="F46">
-        <f>[1]工作表1!E2</f>
         <v>2</v>
       </c>
       <c r="G46">
-        <f>[1]工作表1!F2</f>
         <v>6</v>
       </c>
       <c r="H46">
@@ -3378,22 +2866,18 @@
         <v>2400</v>
       </c>
       <c r="K46">
-        <f>[1]工作表1!K2</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>[1]工作表1!L2</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>[1]工作表1!J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" t="str">
-        <f>[1]工作表1!A3</f>
-        <v>小桃园</v>
+      <c r="A47" t="s">
+        <v>78</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -3402,19 +2886,15 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f>[1]工作表1!I3</f>
         <v>4.7</v>
       </c>
       <c r="E47">
-        <f>[1]工作表1!D3</f>
         <v>30</v>
       </c>
       <c r="F47">
-        <f>[1]工作表1!E3</f>
         <v>6</v>
       </c>
       <c r="G47">
-        <f>[1]工作表1!F3</f>
         <v>18</v>
       </c>
       <c r="H47">
@@ -3427,22 +2907,18 @@
         <v>2400</v>
       </c>
       <c r="K47">
-        <f>[1]工作表1!K3</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>[1]工作表1!L3</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f>[1]工作表1!J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" t="str">
-        <f>[1]工作表1!A4</f>
-        <v>鼓楼公园</v>
+      <c r="A48" t="s">
+        <v>79</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -3451,19 +2927,15 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f>[1]工作表1!I4</f>
         <v>3.4</v>
       </c>
       <c r="E48">
-        <f>[1]工作表1!D4</f>
         <v>145</v>
       </c>
       <c r="F48">
-        <f>[1]工作表1!E4</f>
         <v>8</v>
       </c>
       <c r="G48">
-        <f>[1]工作表1!F4</f>
         <v>73</v>
       </c>
       <c r="H48">
@@ -3476,22 +2948,18 @@
         <v>1700</v>
       </c>
       <c r="K48">
-        <f>[1]工作表1!K4</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>[1]工作表1!L4</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>[1]工作表1!J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" t="str">
-        <f>[1]工作表1!A5</f>
-        <v>石头城公园</v>
+      <c r="A49" t="s">
+        <v>80</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3500,19 +2968,15 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <f>[1]工作表1!I5</f>
         <v>4.2</v>
       </c>
       <c r="E49">
-        <f>[1]工作表1!D5</f>
         <v>65</v>
       </c>
       <c r="F49">
-        <f>[1]工作表1!E5</f>
         <v>3</v>
       </c>
       <c r="G49">
-        <f>[1]工作表1!F5</f>
         <v>13</v>
       </c>
       <c r="H49">
@@ -3525,22 +2989,18 @@
         <v>1800</v>
       </c>
       <c r="K49">
-        <f>[1]工作表1!K5</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>[1]工作表1!L5</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f>[1]工作表1!J5</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" t="str">
-        <f>[1]工作表1!A6</f>
-        <v>古林公园</v>
+      <c r="A50" t="s">
+        <v>81</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3549,19 +3009,15 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f>[1]工作表1!I6</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="E50">
-        <f>[1]工作表1!D6</f>
         <v>35</v>
       </c>
       <c r="F50">
-        <f>[1]工作表1!E6</f>
         <v>5</v>
       </c>
       <c r="G50">
-        <f>[1]工作表1!F6</f>
         <v>3</v>
       </c>
       <c r="H50">
@@ -3574,22 +3030,18 @@
         <v>2030</v>
       </c>
       <c r="K50">
-        <f>[1]工作表1!K6</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>[1]工作表1!L6</f>
-        <v>0</v>
-      </c>
-      <c r="N50" t="str">
-        <f>[1]工作表1!J6</f>
-        <v>江苏省南京市鼓楼区虎踞北路21号</v>
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" t="str">
-        <f>[1]工作表1!A7</f>
-        <v>乌龙潭公园</v>
+      <c r="A51" t="s">
+        <v>83</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -3598,19 +3050,15 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <f>[1]工作表1!I7</f>
         <v>4</v>
       </c>
       <c r="E51">
-        <f>[1]工作表1!D7</f>
         <v>50</v>
       </c>
       <c r="F51">
-        <f>[1]工作表1!E7</f>
         <v>6</v>
       </c>
       <c r="G51">
-        <f>[1]工作表1!F7</f>
         <v>16</v>
       </c>
       <c r="H51">
@@ -3628,15 +3076,13 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="N51" t="str">
-        <f>[1]工作表1!J7</f>
-        <v>广州路215号(省人民医院对面)</v>
+      <c r="N51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" t="str">
-        <f>[1]工作表1!A8</f>
-        <v>拉贝旧居</v>
+      <c r="A52" t="s">
+        <v>85</v>
       </c>
       <c r="B52">
         <v>20</v>
@@ -3645,19 +3091,15 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f>[1]工作表1!I8</f>
         <v>4.2</v>
       </c>
       <c r="E52">
-        <f>[1]工作表1!D8</f>
         <v>130</v>
       </c>
       <c r="F52">
-        <f>[1]工作表1!E8</f>
         <v>10</v>
       </c>
       <c r="G52">
-        <f>[1]工作表1!F8</f>
         <v>41</v>
       </c>
       <c r="H52">
@@ -3673,18 +3115,15 @@
         <v>20</v>
       </c>
       <c r="L52">
-        <f>[1]工作表1!L8</f>
-        <v>0</v>
-      </c>
-      <c r="N52" t="str">
-        <f>[1]工作表1!J8</f>
-        <v>南京市鼓楼区广州路小粉桥1号</v>
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" t="str">
-        <f>[1]工作表1!A9</f>
-        <v>基督教江苏路堂</v>
+      <c r="A53" t="s">
+        <v>87</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -3693,19 +3132,15 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f>[1]工作表1!I9</f>
         <v>3.5</v>
       </c>
       <c r="E53">
-        <f>[1]工作表1!D9</f>
         <v>140</v>
       </c>
       <c r="F53">
-        <f>[1]工作表1!E9</f>
         <v>7</v>
       </c>
       <c r="G53">
-        <f>[1]工作表1!F9</f>
         <v>46</v>
       </c>
       <c r="H53">
@@ -3723,15 +3158,13 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="N53" t="str">
-        <f>[1]工作表1!J9</f>
-        <v>江苏省南京市江苏路60-10号</v>
+      <c r="N53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" t="str">
-        <f>[1]工作表1!A10</f>
-        <v>八字山公园</v>
+      <c r="A54" t="s">
+        <v>89</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -3740,19 +3173,15 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f>[1]工作表1!I10</f>
         <v>3.8</v>
       </c>
       <c r="E54">
-        <f>[1]工作表1!D10</f>
         <v>75</v>
       </c>
       <c r="F54">
-        <f>[1]工作表1!E10</f>
         <v>7</v>
       </c>
       <c r="G54">
-        <f>[1]工作表1!F10</f>
         <v>12</v>
       </c>
       <c r="H54">
@@ -3770,15 +3199,13 @@
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="N54" t="str">
-        <f>[1]工作表1!J10</f>
-        <v>中山北路419号</v>
+      <c r="N54" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" t="str">
-        <f>[1]工作表1!A11</f>
-        <v>曹雪芹纪念馆</v>
+      <c r="A55" t="s">
+        <v>91</v>
       </c>
       <c r="B55">
         <v>30</v>
@@ -3787,19 +3214,15 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f>[1]工作表1!I11</f>
         <v>3.8</v>
       </c>
       <c r="E55">
-        <f>[1]工作表1!D11</f>
         <v>60</v>
       </c>
       <c r="F55">
-        <f>[1]工作表1!E11</f>
         <v>6</v>
       </c>
       <c r="G55">
-        <f>[1]工作表1!F11</f>
         <v>41</v>
       </c>
       <c r="H55">
@@ -3815,18 +3238,15 @@
         <v>20</v>
       </c>
       <c r="L55">
-        <f>[1]工作表1!L11</f>
-        <v>0</v>
-      </c>
-      <c r="N55" t="str">
-        <f>[1]工作表1!J11</f>
-        <v>广州路217号乌龙潭公园内</v>
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" t="str">
-        <f>[1]工作表1!A12</f>
-        <v>狮子桥</v>
+      <c r="A56" t="s">
+        <v>93</v>
       </c>
       <c r="B56">
         <v>100</v>
@@ -3835,19 +3255,15 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f>[1]工作表1!I12</f>
         <v>3.8</v>
       </c>
       <c r="E56">
-        <f>[1]工作表1!D12</f>
         <v>200</v>
       </c>
       <c r="F56">
-        <f>[1]工作表1!E12</f>
         <v>9</v>
       </c>
       <c r="G56">
-        <f>[1]工作表1!F12</f>
         <v>56</v>
       </c>
       <c r="H56">
@@ -3865,15 +3281,13 @@
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="N56" t="str">
-        <f>[1]工作表1!J12</f>
-        <v>南京市鼓楼区云南北路28号</v>
+      <c r="N56" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" t="str">
-        <f>[1]工作表1!A13</f>
-        <v>郑和公园</v>
+      <c r="A57" t="s">
+        <v>95</v>
       </c>
       <c r="B57">
         <v>50</v>
@@ -3882,19 +3296,15 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <f>[1]工作表1!I13</f>
         <v>4.3</v>
       </c>
       <c r="E57">
-        <f>[1]工作表1!D13</f>
         <v>110</v>
       </c>
       <c r="F57">
-        <f>[1]工作表1!E13</f>
         <v>10</v>
       </c>
       <c r="G57">
-        <f>[1]工作表1!F13</f>
         <v>32</v>
       </c>
       <c r="H57">
@@ -3912,15 +3322,13 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="N57" t="str">
-        <f>[1]工作表1!J13</f>
-        <v>江苏省南京市秦淮区长太平巷35号</v>
+      <c r="N57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" t="str">
-        <f>[1]工作表1!A14</f>
-        <v>午朝门公园</v>
+      <c r="A58" t="s">
+        <v>97</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -3929,19 +3337,15 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <f>[1]工作表1!I14</f>
         <v>3.8</v>
       </c>
       <c r="E58">
-        <f>[1]工作表1!D14</f>
         <v>150</v>
       </c>
       <c r="F58">
-        <f>[1]工作表1!E14</f>
         <v>6</v>
       </c>
       <c r="G58">
-        <f>[1]工作表1!F14</f>
         <v>15</v>
       </c>
       <c r="H58">
@@ -3959,15 +3363,13 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="N58" t="str">
-        <f>[1]工作表1!J14</f>
-        <v>御道街27号(明故宫遗址)</v>
+      <c r="N58" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" t="str">
-        <f>[1]工作表1!A15</f>
-        <v>月牙湖公园</v>
+      <c r="A59" t="s">
+        <v>99</v>
       </c>
       <c r="B59">
         <v>30</v>
@@ -3976,19 +3378,15 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <f>[1]工作表1!I15</f>
         <v>4</v>
       </c>
       <c r="E59">
-        <f>[1]工作表1!D15</f>
         <v>80</v>
       </c>
       <c r="F59">
-        <f>[1]工作表1!E15</f>
         <v>4</v>
       </c>
       <c r="G59">
-        <f>[1]工作表1!F15</f>
         <v>9</v>
       </c>
       <c r="H59">
@@ -4006,15 +3404,13 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="N59" t="str">
-        <f>[1]工作表1!J15</f>
-        <v>南京市秦淮区后标营51号</v>
+      <c r="N59" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" t="str">
-        <f>[1]工作表1!A16</f>
-        <v>甘熙故居</v>
+      <c r="A60" t="s">
+        <v>101</v>
       </c>
       <c r="B60">
         <v>30</v>
@@ -4023,19 +3419,15 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f>[1]工作表1!I16</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E60">
-        <f>[1]工作表1!D16</f>
         <v>170</v>
       </c>
       <c r="F60">
-        <f>[1]工作表1!E16</f>
         <v>10</v>
       </c>
       <c r="G60">
-        <f>[1]工作表1!F16</f>
         <v>28</v>
       </c>
       <c r="H60">
@@ -4053,15 +3445,13 @@
       <c r="L60">
         <v>2</v>
       </c>
-      <c r="N60" t="str">
-        <f>[1]工作表1!J16</f>
-        <v>江苏省南京市秦淮区南捕厅19号-旁门</v>
+      <c r="N60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" t="str">
-        <f>[1]工作表1!A17</f>
-        <v>石鼓路天主堂</v>
+      <c r="A61" t="s">
+        <v>103</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -4070,19 +3460,15 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f>[1]工作表1!I17</f>
         <v>3.5</v>
       </c>
       <c r="E61">
-        <f>[1]工作表1!D17</f>
         <v>270</v>
       </c>
       <c r="F61">
-        <f>[1]工作表1!E17</f>
         <v>12</v>
       </c>
       <c r="G61">
-        <f>[1]工作表1!F17</f>
         <v>50</v>
       </c>
       <c r="H61">
@@ -4100,15 +3486,13 @@
       <c r="L61">
         <v>2</v>
       </c>
-      <c r="N61" t="str">
-        <f>[1]工作表1!J17</f>
-        <v>秦淮区石鼓路112号(近愁莫街)</v>
+      <c r="N61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" t="str">
-        <f>[1]工作表1!A18</f>
-        <v>中山陵园风景区</v>
+      <c r="A62" t="s">
+        <v>105</v>
       </c>
       <c r="B62">
         <v>150</v>
@@ -4117,19 +3501,15 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <f>[1]工作表1!I18</f>
         <v>3.6</v>
       </c>
       <c r="E62">
-        <f>[1]工作表1!D18</f>
         <v>10</v>
       </c>
       <c r="F62">
-        <f>[1]工作表1!E18</f>
         <v>2</v>
       </c>
       <c r="G62">
-        <f>[1]工作表1!F18</f>
         <v>1</v>
       </c>
       <c r="H62">
@@ -4147,15 +3527,13 @@
       <c r="L62">
         <v>2</v>
       </c>
-      <c r="N62" t="str">
-        <f>[1]工作表1!J18</f>
-        <v>南京市玄武区石象路7号</v>
+      <c r="N62" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" t="str">
-        <f>[1]工作表1!A19</f>
-        <v>总统府</v>
+      <c r="A63" t="s">
+        <v>107</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -4164,19 +3542,15 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <f>[1]工作表1!I19</f>
         <v>4.2</v>
       </c>
       <c r="E63">
-        <f>[1]工作表1!D19</f>
         <v>170</v>
       </c>
       <c r="F63">
-        <f>[1]工作表1!E19</f>
         <v>6</v>
       </c>
       <c r="G63">
-        <f>[1]工作表1!F19</f>
         <v>19</v>
       </c>
       <c r="H63">
@@ -4194,15 +3568,13 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="N63" t="str">
-        <f>[1]工作表1!J19</f>
-        <v>南京市玄武区长江路292号</v>
+      <c r="N63" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" t="str">
-        <f>[1]工作表1!A20</f>
-        <v>玄武湖公园</v>
+      <c r="A64" t="s">
+        <v>109</v>
       </c>
       <c r="B64">
         <v>100</v>
@@ -4211,19 +3583,15 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <f>[1]工作表1!I20</f>
         <v>4.5</v>
       </c>
       <c r="E64">
-        <f>[1]工作表1!D20</f>
         <v>20</v>
       </c>
       <c r="F64">
-        <f>[1]工作表1!E20</f>
         <v>9</v>
       </c>
       <c r="G64">
-        <f>[1]工作表1!F20</f>
         <v>20</v>
       </c>
       <c r="H64">
@@ -4241,15 +3609,13 @@
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="N64" t="str">
-        <f>[1]工作表1!J20</f>
-        <v>南京市玄武区玄武巷1号(近洞庭路)</v>
+      <c r="N64" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" t="str">
-        <f>[1]工作表1!A21</f>
-        <v>南京博物院</v>
+      <c r="A65" t="s">
+        <v>111</v>
       </c>
       <c r="B65">
         <v>80</v>
@@ -4258,19 +3624,15 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <f>[1]工作表1!I21</f>
         <v>4.7</v>
       </c>
       <c r="E65">
-        <f>[1]工作表1!D21</f>
         <v>90</v>
       </c>
       <c r="F65">
-        <f>[1]工作表1!E21</f>
         <v>6</v>
       </c>
       <c r="G65">
-        <f>[1]工作表1!F21</f>
         <v>10</v>
       </c>
       <c r="H65">
@@ -4288,15 +3650,13 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="N65" t="str">
-        <f>[1]工作表1!J21</f>
-        <v>江苏省南京市玄武区中山东路321号</v>
+      <c r="N65" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" t="str">
-        <f>[1]工作表1!A22</f>
-        <v>鸡鸣寺</v>
+      <c r="A66" t="s">
+        <v>113</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -4305,19 +3665,15 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f>[1]工作表1!I22</f>
         <v>4.2</v>
       </c>
       <c r="E66">
-        <f>[1]工作表1!D22</f>
         <v>40</v>
       </c>
       <c r="F66">
-        <f>[1]工作表1!E22</f>
         <v>8</v>
       </c>
       <c r="G66">
-        <f>[1]工作表1!F22</f>
         <v>10</v>
       </c>
       <c r="H66">
@@ -4335,15 +3691,13 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="N66" t="str">
-        <f>[1]工作表1!J22</f>
-        <v>玄武区鸡鸣寺路1号(近北极阁公园)</v>
+      <c r="N66" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" t="str">
-        <f>[1]工作表1!A23</f>
-        <v>明孝陵</v>
+      <c r="A67" t="s">
+        <v>115</v>
       </c>
       <c r="B67">
         <v>80</v>
@@ -4352,19 +3706,15 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <f>[1]工作表1!I23</f>
         <v>4.3</v>
       </c>
       <c r="E67">
-        <f>[1]工作表1!D23</f>
         <v>20</v>
       </c>
       <c r="F67">
-        <f>[1]工作表1!E23</f>
         <v>2</v>
       </c>
       <c r="G67">
-        <f>[1]工作表1!F23</f>
         <v>5</v>
       </c>
       <c r="H67">
@@ -4382,15 +3732,13 @@
       <c r="L67">
         <v>2</v>
       </c>
-      <c r="N67" t="str">
-        <f>[1]工作表1!J23</f>
-        <v>南京市玄武区紫金山南独龙阜玩珠峰下</v>
+      <c r="N67" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" t="str">
-        <f>[1]工作表1!A24</f>
-        <v>梅花山</v>
+      <c r="A68" t="s">
+        <v>117</v>
       </c>
       <c r="B68">
         <v>50</v>
@@ -4399,19 +3747,15 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <f>[1]工作表1!I24</f>
         <v>4.5</v>
       </c>
       <c r="E68">
-        <f>[1]工作表1!D24</f>
         <v>10</v>
       </c>
       <c r="F68">
-        <f>[1]工作表1!E24</f>
         <v>2</v>
       </c>
       <c r="G68">
-        <f>[1]工作表1!F24</f>
         <v>8</v>
       </c>
       <c r="H68">
@@ -4429,15 +3773,13 @@
       <c r="L68">
         <v>1</v>
       </c>
-      <c r="N68" t="str">
-        <f>[1]工作表1!J24</f>
-        <v>南京市中山门外钟山南</v>
+      <c r="N68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" t="str">
-        <f>[1]工作表1!A25</f>
-        <v>红山森林动物园</v>
+      <c r="A69" t="s">
+        <v>119</v>
       </c>
       <c r="B69">
         <v>80</v>
@@ -4446,19 +3788,15 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <f>[1]工作表1!I25</f>
         <v>4</v>
       </c>
       <c r="E69">
-        <f>[1]工作表1!D25</f>
         <v>70</v>
       </c>
       <c r="F69">
-        <f>[1]工作表1!E25</f>
         <v>6</v>
       </c>
       <c r="G69">
-        <f>[1]工作表1!F25</f>
         <v>16</v>
       </c>
       <c r="H69">
@@ -4476,15 +3814,13 @@
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="N69" t="str">
-        <f>[1]工作表1!J25</f>
-        <v>和燕路168号</v>
+      <c r="N69" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" t="str">
-        <f>[1]工作表1!A26</f>
-        <v>海底世界</v>
+      <c r="A70" t="s">
+        <v>121</v>
       </c>
       <c r="B70">
         <v>300</v>
@@ -4493,19 +3829,15 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f>[1]工作表1!I26</f>
         <v>3.9</v>
       </c>
       <c r="E70">
-        <f>[1]工作表1!D26</f>
         <v>20</v>
       </c>
       <c r="F70">
-        <f>[1]工作表1!E26</f>
         <v>2</v>
       </c>
       <c r="G70">
-        <f>[1]工作表1!F26</f>
         <v>10</v>
       </c>
       <c r="H70">
@@ -4523,15 +3855,13 @@
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="N70" t="str">
-        <f>[1]工作表1!J26</f>
-        <v>江苏省南京市玄武区中山陵四方城8号</v>
+      <c r="N70" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" t="str">
-        <f>[1]工作表1!A27</f>
-        <v>明故宫遗址公园</v>
+      <c r="A71" t="s">
+        <v>123</v>
       </c>
       <c r="B71">
         <v>50</v>
@@ -4540,19 +3870,15 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f>[1]工作表1!I27</f>
         <v>3.8</v>
       </c>
       <c r="E71">
-        <f>[1]工作表1!D27</f>
         <v>90</v>
       </c>
       <c r="F71">
-        <f>[1]工作表1!E27</f>
         <v>10</v>
       </c>
       <c r="G71">
-        <f>[1]工作表1!F27</f>
         <v>15</v>
       </c>
       <c r="H71">
@@ -4570,15 +3896,13 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="N71" t="str">
-        <f>[1]工作表1!J27</f>
-        <v>江苏省南京市玄武区明故宫</v>
+      <c r="N71" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" t="str">
-        <f>[1]工作表1!A28</f>
-        <v>灵谷寺</v>
+      <c r="A72" t="s">
+        <v>125</v>
       </c>
       <c r="B72">
         <v>80</v>
@@ -4587,19 +3911,15 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f>[1]工作表1!I28</f>
         <v>3</v>
       </c>
       <c r="E72">
-        <f>[1]工作表1!D28</f>
         <v>10</v>
       </c>
       <c r="F72">
-        <f>[1]工作表1!E28</f>
         <v>2</v>
       </c>
       <c r="G72">
-        <f>[1]工作表1!F28</f>
         <v>1</v>
       </c>
       <c r="H72">
@@ -4617,15 +3937,13 @@
       <c r="L72">
         <v>2</v>
       </c>
-      <c r="N72" t="str">
-        <f>[1]工作表1!J28</f>
-        <v>江苏省南京市玄武区灵谷寺路</v>
+      <c r="N72" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" t="str">
-        <f>[1]工作表1!A29</f>
-        <v>情侣园</v>
+      <c r="A73" t="s">
+        <v>127</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -4634,19 +3952,15 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f>[1]工作表1!I29</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="E73">
-        <f>[1]工作表1!D29</f>
         <v>90</v>
       </c>
       <c r="F73">
-        <f>[1]工作表1!E29</f>
         <v>4</v>
       </c>
       <c r="G73">
-        <f>[1]工作表1!F29</f>
         <v>23</v>
       </c>
       <c r="H73">
@@ -4664,15 +3978,13 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="N73" t="str">
-        <f>[1]工作表1!J29</f>
-        <v>南京市玄武区龙蟠路100号</v>
+      <c r="N73" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" t="str">
-        <f>[1]工作表1!A30</f>
-        <v>美龄宫</v>
+      <c r="A74" t="s">
+        <v>129</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -4681,19 +3993,15 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <f>[1]工作表1!I30</f>
         <v>4.5</v>
       </c>
       <c r="E74">
-        <f>[1]工作表1!D30</f>
         <v>30</v>
       </c>
       <c r="F74">
-        <f>[1]工作表1!E30</f>
         <v>2</v>
       </c>
       <c r="G74">
-        <f>[1]工作表1!F30</f>
         <v>15</v>
       </c>
       <c r="H74">
@@ -4711,15 +4019,13 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="N74" t="str">
-        <f>[1]工作表1!J30</f>
-        <v>南京市玄武区中山陵9号</v>
+      <c r="N74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" t="str">
-        <f>[1]工作表1!A31</f>
-        <v>紫霞湖</v>
+      <c r="A75" t="s">
+        <v>131</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -4728,19 +4034,15 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f>[1]工作表1!I31</f>
         <v>4.2</v>
       </c>
       <c r="E75">
-        <f>[1]工作表1!D31</f>
         <v>10</v>
       </c>
       <c r="F75">
-        <f>[1]工作表1!E31</f>
         <v>1</v>
       </c>
       <c r="G75">
-        <f>[1]工作表1!F31</f>
         <v>3</v>
       </c>
       <c r="H75">
@@ -4758,15 +4060,13 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="N75" t="str">
-        <f>[1]工作表1!J31</f>
-        <v>南京市玄武区明孝陵景区内</v>
+      <c r="N75" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" t="str">
-        <f>[1]工作表1!A32</f>
-        <v>紫金山</v>
+      <c r="A76" t="s">
+        <v>133</v>
       </c>
       <c r="B76">
         <v>50</v>
@@ -4775,19 +4075,15 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <f>[1]工作表1!I32</f>
         <v>4.7</v>
       </c>
       <c r="E76">
-        <f>[1]工作表1!D32</f>
         <v>1</v>
       </c>
       <c r="F76">
-        <f>[1]工作表1!E32</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f>[1]工作表1!F32</f>
         <v>0</v>
       </c>
       <c r="H76">
@@ -4805,15 +4101,13 @@
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="N76" t="str">
-        <f>[1]工作表1!J32</f>
-        <v>南京市玄武区钟山风景区内</v>
+      <c r="N76" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" t="str">
-        <f>[1]工作表1!A33</f>
-        <v>先锋书店</v>
+      <c r="A77" t="s">
+        <v>135</v>
       </c>
       <c r="B77">
         <v>30</v>
@@ -4822,19 +4116,15 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f>[1]工作表1!I33</f>
         <v>4.3</v>
       </c>
       <c r="E77">
-        <f>[1]工作表1!D33</f>
         <v>110</v>
       </c>
       <c r="F77">
-        <f>[1]工作表1!E33</f>
         <v>5</v>
       </c>
       <c r="G77">
-        <f>[1]工作表1!F33</f>
         <v>10</v>
       </c>
       <c r="H77">
@@ -4852,15 +4142,13 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="N77" t="str">
-        <f>[1]工作表1!J33</f>
-        <v>广州路173号五台山体育馆地下车库</v>
+      <c r="N77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" t="str">
-        <f>[1]工作表1!A34</f>
-        <v>江宁织造博物馆</v>
+      <c r="A78" t="s">
+        <v>137</v>
       </c>
       <c r="B78">
         <v>230</v>
@@ -4869,19 +4157,15 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f>[1]工作表1!I34</f>
         <v>4.5</v>
       </c>
       <c r="E78">
-        <f>[1]工作表1!D34</f>
         <v>230</v>
       </c>
       <c r="F78">
-        <f>[1]工作表1!E34</f>
         <v>12</v>
       </c>
       <c r="G78">
-        <f>[1]工作表1!F34</f>
         <v>20</v>
       </c>
       <c r="H78">
@@ -4899,15 +4183,13 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="N78" t="str">
-        <f>[1]工作表1!J34</f>
-        <v>江苏省南京市玄武区长江路123号</v>
+      <c r="N78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" t="str">
-        <f>[1]工作表1!A35</f>
-        <v>南京大学鼓楼校区</v>
+      <c r="A79" t="s">
+        <v>142</v>
       </c>
       <c r="B79">
         <v>20</v>
@@ -4916,19 +4198,15 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <f>[1]工作表1!I35</f>
         <v>4.7</v>
       </c>
       <c r="E79">
-        <f>[1]工作表1!D35</f>
         <v>170</v>
       </c>
       <c r="F79">
-        <f>[1]工作表1!E35</f>
         <v>10</v>
       </c>
       <c r="G79">
-        <f>[1]工作表1!F35</f>
         <v>20</v>
       </c>
       <c r="H79">
@@ -4946,15 +4224,13 @@
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="N79" t="str">
-        <f>[1]工作表1!J35</f>
-        <v>江苏省南京市鼓楼区汉口路22号</v>
+      <c r="N79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" t="str">
-        <f>[1]工作表1!A36</f>
-        <v>东南大学四牌楼校区</v>
+      <c r="A80" t="s">
+        <v>141</v>
       </c>
       <c r="B80">
         <v>20</v>
@@ -4963,19 +4239,15 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <f>[1]工作表1!I36</f>
         <v>4.7</v>
       </c>
       <c r="E80">
-        <f>[1]工作表1!D36</f>
         <v>150</v>
       </c>
       <c r="F80">
-        <f>[1]工作表1!E36</f>
         <v>6</v>
       </c>
       <c r="G80">
-        <f>[1]工作表1!F36</f>
         <v>18</v>
       </c>
       <c r="H80">
@@ -4993,9 +4265,8 @@
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="N80" t="str">
-        <f>[1]工作表1!J36</f>
-        <v>南京市玄武区四牌楼2号</v>
+      <c r="N80" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
